--- a/biology/Zoologie/Anabantidae/Anabantidae.xlsx
+++ b/biology/Zoologie/Anabantidae/Anabantidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Anabantidae (Anabantidés) sont une famille de poissons d'eau douce adaptés à des milieux aquatiques pauvres en oxygène.
 </t>
@@ -511,7 +523,9 @@
           <t>Adaptation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour compenser la pauvreté en oxygène, ou anoxie partielle, de l'eau dans laquelle ils vivent, les Anabantidae ont développé un organe situé dans la tête, appelé labyrinthe. Il s'agit d'une structure richement vascularisée captant l'oxygène de l'air et le faisant passer dans le sang. Cet organe ne remplace pas les branchies, qui sont pleinement fonctionnelles, mais les complète.
 </t>
@@ -542,7 +556,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La plupart des espèces vivent en Afrique, jusqu'en Inde et aux Philippines, en eau douce, rarement en eau saumâtre. Certaines, comme les Gouramis ou les poissons combattants, sont populaires en aquariophilie.
 </t>
@@ -573,9 +589,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (10 juillet 2014)[1], FishBase                                            (10 juillet 2014)[2], ITIS      (10 juillet 2014)[3] et World Register of Marine Species                               (10 juillet 2014)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (10 juillet 2014), FishBase                                            (10 juillet 2014), ITIS      (10 juillet 2014) et World Register of Marine Species                               (10 juillet 2014) :
 genre Anabas Cloquet, 1816
 genre Ctenopoma Peters, 1844
 genre Microctenopoma Norris, 1995
